--- a/public/router/routes.xlsx
+++ b/public/router/routes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chan_project\vite-system\public\router\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD23A35D-DA20-4126-99A1-8796F5BA6841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EBC3AD-391C-44E0-8268-36184BD69F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="auth" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="permission" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">routes!$A$1:$P$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">routes!$A$1:$P$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -273,41 +273,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">AAT:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>重複顯示紅色</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
@@ -891,13 +856,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
-  <si>
-    <t>SECURITY</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="93">
   <si>
     <t>delete</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -935,118 +894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單需求管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本資訊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入庫單資訊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品庫存與WIP工單分派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單警示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>報表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出貨單</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單達交表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmd-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 &lt;&lt; 0</t>
   </si>
   <si>
@@ -1177,36 +1024,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nav1-1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nav1-1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nav1-1-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能1</t>
-  </si>
-  <si>
-    <t>功能2</t>
-  </si>
-  <si>
-    <t>功能3</t>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶訂單資訊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備庫訂單資訊</t>
+    <t>產品資訊維護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製程資訊維護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機台資訊維護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工時管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料維護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本維護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nav1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nav1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nav1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nav1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nav2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nav2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nav2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nav2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進階維護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規則管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周計畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域資訊維護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nav1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組件介紹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chart1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱狀圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chart2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓餅圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘特圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖表測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chart3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組件2</t>
+  </si>
+  <si>
+    <t>組件3</t>
+  </si>
+  <si>
+    <t>components2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components3-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1214,7 +1214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1275,6 +1275,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1325,11 +1333,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1356,11 +1361,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1407,6 +1558,34 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1700,51 +1879,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1759,15 +1938,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1782,15 +1961,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1805,15 +1984,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1828,15 +2007,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1851,15 +2030,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1874,15 +2053,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1894,29 +2073,6 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
         <v>1</v>
       </c>
     </row>
@@ -1929,18 +2085,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="9" width="10.625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="10.75" hidden="1" customWidth="1"/>
@@ -1948,74 +2104,74 @@
     <col min="15" max="16" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" s="6" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D17" si="0" xml:space="preserve"> IF(
+      <c r="O1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="str">
+        <f t="shared" ref="D2:D29" si="0" xml:space="preserve"> IF(
   AND($B2="", $C2=""),
   $A2,
   IF($C2&lt;&gt;"", $C2, $B2)
 )</f>
-        <v>dmd</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
+        <v>nav</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D2) &gt; 0,
   permission!$C$2,
@@ -2023,23 +2179,23 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D2) * permission!$D$2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D2) * permission!$E$2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D2) * permission!$F$2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D2) * permission!$G$2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="10">
         <f xml:space="preserve"> IF(
   OR($D2="", $F2=0),
   permission!$H$2,
@@ -2047,32 +2203,30 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="str">
+      <c r="L2" s="10"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>dmd-1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1">
+        <v>nav1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D3) &gt; 0,
   permission!$C$2,
@@ -2080,23 +2234,23 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D3) * permission!$D$2</f>
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D3) * permission!$E$2</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D3) * permission!$F$2</f>
         <v>0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D3) * permission!$G$2</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="10">
         <f xml:space="preserve"> IF(
   OR($D3="", $F3=0),
   permission!$H$2,
@@ -2104,31 +2258,32 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="P3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="str">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>dmd-11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="1">
+        <v>nav1-1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D4) &gt; 0,
   permission!$C$2,
@@ -2136,23 +2291,23 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D4) * permission!$D$2</f>
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D4) * permission!$E$2</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D4) * permission!$F$2</f>
         <v>0</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D4) * permission!$G$2</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="10">
         <f xml:space="preserve"> IF(
   OR($D4="", $F4=0),
   permission!$H$2,
@@ -2160,34 +2315,34 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="1" t="b">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="str">
+      <c r="P4" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>dmd-12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="1">
+        <v>nav1-2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D5) &gt; 0,
   permission!$C$2,
@@ -2195,23 +2350,23 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D5) * permission!$D$2</f>
         <v>0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D5) * permission!$E$2</f>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D5) * permission!$F$2</f>
         <v>0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D5) * permission!$G$2</f>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="10">
         <f xml:space="preserve"> IF(
   OR($D5="", $F5=0),
   permission!$H$2,
@@ -2219,32 +2374,32 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="str">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>dmd-13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
+        <v>nav1-3</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D6) &gt; 0,
   permission!$C$2,
@@ -2252,23 +2407,23 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D6) * permission!$D$2</f>
         <v>0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D6) * permission!$E$2</f>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D6) * permission!$F$2</f>
         <v>0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D6) * permission!$G$2</f>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="10">
         <f xml:space="preserve"> IF(
   OR($D6="", $F6=0),
   permission!$H$2,
@@ -2276,30 +2431,32 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="str">
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>dmd-2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1">
+        <v>nav1-4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D7) &gt; 0,
   permission!$C$2,
@@ -2307,23 +2464,23 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D7) * permission!$D$2</f>
         <v>0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D7) * permission!$E$2</f>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D7) * permission!$F$2</f>
         <v>0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D7) * permission!$G$2</f>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="10">
         <f xml:space="preserve"> IF(
   OR($D7="", $F7=0),
   permission!$H$2,
@@ -2331,32 +2488,30 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="str">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>dmd-21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1">
+        <v>nav2</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D8) &gt; 0,
   permission!$C$2,
@@ -2364,23 +2519,23 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D8) * permission!$D$2</f>
         <v>0</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D8) * permission!$E$2</f>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D8) * permission!$F$2</f>
         <v>0</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D8) * permission!$G$2</f>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="10">
         <f xml:space="preserve"> IF(
   OR($D8="", $F8=0),
   permission!$H$2,
@@ -2388,30 +2543,32 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="str">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>dmd-3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1">
+        <v>nav2-1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D9) &gt; 0,
   permission!$C$2,
@@ -2419,23 +2576,23 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D9) * permission!$D$2</f>
         <v>0</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D9) * permission!$E$2</f>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D9) * permission!$F$2</f>
         <v>0</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D9) * permission!$G$2</f>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="10">
         <f xml:space="preserve"> IF(
   OR($D9="", $F9=0),
   permission!$H$2,
@@ -2443,32 +2600,34 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>nav2-2</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>dmd-31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="F10" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D10) &gt; 0,
   permission!$C$2,
@@ -2476,23 +2635,23 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D10) * permission!$D$2</f>
         <v>0</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D10) * permission!$E$2</f>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D10) * permission!$F$2</f>
         <v>0</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D10) * permission!$G$2</f>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="10">
         <f xml:space="preserve"> IF(
   OR($D10="", $F10=0),
   permission!$H$2,
@@ -2500,30 +2659,32 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="str">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>dmd-4</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1">
+        <v>nav2-3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D11) &gt; 0,
   permission!$C$2,
@@ -2531,23 +2692,23 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D11) * permission!$D$2</f>
         <v>0</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D11) * permission!$E$2</f>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D11) * permission!$F$2</f>
         <v>0</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D11) * permission!$G$2</f>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="10">
         <f xml:space="preserve"> IF(
   OR($D11="", $F11=0),
   permission!$H$2,
@@ -2555,32 +2716,32 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="str">
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>dmd-41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1">
+        <v>nav2-4</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D12) &gt; 0,
   permission!$C$2,
@@ -2588,23 +2749,23 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D12) * permission!$D$2</f>
         <v>0</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D12) * permission!$E$2</f>
         <v>0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D12) * permission!$F$2</f>
         <v>0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D12) * permission!$G$2</f>
         <v>0</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="10">
         <f xml:space="preserve"> IF(
   OR($D12="", $F12=0),
   permission!$H$2,
@@ -2612,32 +2773,28 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1" t="str">
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>dmd-42</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1">
+        <v>chart</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D13) &gt; 0,
   permission!$C$2,
@@ -2645,23 +2802,23 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D13) * permission!$D$2</f>
         <v>0</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D13) * permission!$E$2</f>
         <v>0</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D13) * permission!$F$2</f>
         <v>0</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D13) * permission!$G$2</f>
         <v>0</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="10">
         <f xml:space="preserve"> IF(
   OR($D13="", $F13=0),
   permission!$H$2,
@@ -2669,28 +2826,30 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="str">
+      <c r="B14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>nav</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="1">
+        <v>chart1</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D14) &gt; 0,
   permission!$C$2,
@@ -2698,23 +2857,23 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D14) * permission!$D$2</f>
         <v>0</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D14) * permission!$E$2</f>
         <v>0</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D14) * permission!$F$2</f>
         <v>0</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D14) * permission!$G$2</f>
         <v>0</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="10">
         <f xml:space="preserve"> IF(
   OR($D14="", $F14=0),
   permission!$H$2,
@@ -2722,58 +2881,54 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="1" t="str">
+      <c r="B15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>nav1-1-1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="1">
+        <v>chart2</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D15) &gt; 0,
   permission!$C$2,
   0
 )</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D15) * permission!$D$2</f>
-        <v>2</v>
-      </c>
-      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D15) * permission!$E$2</f>
-        <v>4</v>
-      </c>
-      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D15) * permission!$F$2</f>
-        <v>8</v>
-      </c>
-      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D15) * permission!$G$2</f>
-        <v>16</v>
-      </c>
-      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
         <f xml:space="preserve"> IF(
   OR($D15="", $F15=0),
   permission!$H$2,
@@ -2781,58 +2936,54 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="1" t="str">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>nav1-1-2</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="1">
+        <v>chart3</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D16) &gt; 0,
   permission!$C$2,
   0
 )</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D16) * permission!$D$2</f>
-        <v>2</v>
-      </c>
-      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D16) * permission!$E$2</f>
-        <v>4</v>
-      </c>
-      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D16) * permission!$F$2</f>
-        <v>8</v>
-      </c>
-      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D16) * permission!$G$2</f>
-        <v>16</v>
-      </c>
-      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
         <f xml:space="preserve"> IF(
   OR($D16="", $F16=0),
   permission!$H$2,
@@ -2840,56 +2991,52 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="1" t="str">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>nav1-1-4</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="1">
+        <v>components</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="10">
         <f xml:space="preserve"> IF(
   COUNTIF(auth!$C:$C,$D17) &gt; 0,
   permission!$C$2,
   0
 )</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D17) * permission!$D$2</f>
-        <v>2</v>
-      </c>
-      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D17) * permission!$E$2</f>
-        <v>4</v>
-      </c>
-      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D17) * permission!$F$2</f>
-        <v>8</v>
-      </c>
-      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
         <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D17) * permission!$G$2</f>
-        <v>16</v>
-      </c>
-      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
         <f xml:space="preserve"> IF(
   OR($D17="", $F17=0),
   permission!$H$2,
@@ -2897,30 +3044,708 @@
 )</f>
         <v>31</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1" t="s">
-        <v>61</v>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>components1</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="10">
+        <f xml:space="preserve"> IF(
+  COUNTIF(auth!$C:$C,$D18) &gt; 0,
+  permission!$C$2,
+  0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D18) * permission!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D18) * permission!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D18) * permission!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D18) * permission!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <f xml:space="preserve"> IF(
+  OR($D18="", $F18=0),
+  permission!$H$2,
+  SUM($F18:$J18)
+)</f>
+        <v>31</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>components1-1</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="10">
+        <f xml:space="preserve"> IF(
+  COUNTIF(auth!$C:$C,$D19) &gt; 0,
+  permission!$C$2,
+  0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D19) * permission!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D19) * permission!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D19) * permission!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D19) * permission!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <f xml:space="preserve"> IF(
+  OR($D19="", $F19=0),
+  permission!$H$2,
+  SUM($F19:$J19)
+)</f>
+        <v>31</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>components1-2</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="10">
+        <f xml:space="preserve"> IF(
+  COUNTIF(auth!$C:$C,$D20) &gt; 0,
+  permission!$C$2,
+  0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D20) * permission!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D20) * permission!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D20) * permission!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D20) * permission!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="10">
+        <f xml:space="preserve"> IF(
+  OR($D20="", $F20=0),
+  permission!$H$2,
+  SUM($F20:$J20)
+)</f>
+        <v>31</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>components1-3</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="10">
+        <f xml:space="preserve"> IF(
+  COUNTIF(auth!$C:$C,$D21) &gt; 0,
+  permission!$C$2,
+  0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D21) * permission!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D21) * permission!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D21) * permission!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D21) * permission!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <f xml:space="preserve"> IF(
+  OR($D21="", $F21=0),
+  permission!$H$2,
+  SUM($F21:$J21)
+)</f>
+        <v>31</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>components2</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="10">
+        <f xml:space="preserve"> IF(
+  COUNTIF(auth!$C:$C,$D22) &gt; 0,
+  permission!$C$2,
+  0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D22) * permission!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D22) * permission!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D22) * permission!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D22) * permission!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <f xml:space="preserve"> IF(
+  OR($D22="", $F22=0),
+  permission!$H$2,
+  SUM($F22:$J22)
+)</f>
+        <v>31</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>components2-1</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="10">
+        <f xml:space="preserve"> IF(
+  COUNTIF(auth!$C:$C,$D23) &gt; 0,
+  permission!$C$2,
+  0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D23) * permission!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D23) * permission!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D23) * permission!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D23) * permission!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="10">
+        <f xml:space="preserve"> IF(
+  OR($D23="", $F23=0),
+  permission!$H$2,
+  SUM($F23:$J23)
+)</f>
+        <v>31</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>components2-2</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="10">
+        <f xml:space="preserve"> IF(
+  COUNTIF(auth!$C:$C,$D24) &gt; 0,
+  permission!$C$2,
+  0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D24) * permission!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D24) * permission!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D24) * permission!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D24) * permission!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <f xml:space="preserve"> IF(
+  OR($D24="", $F24=0),
+  permission!$H$2,
+  SUM($F24:$J24)
+)</f>
+        <v>31</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>components2-3</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="10">
+        <f xml:space="preserve"> IF(
+  COUNTIF(auth!$C:$C,$D25) &gt; 0,
+  permission!$C$2,
+  0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D25) * permission!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D25) * permission!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D25) * permission!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D25) * permission!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="10">
+        <f xml:space="preserve"> IF(
+  OR($D25="", $F25=0),
+  permission!$H$2,
+  SUM($F25:$J25)
+)</f>
+        <v>31</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>components3</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="10">
+        <f xml:space="preserve"> IF(
+  COUNTIF(auth!$C:$C,$D26) &gt; 0,
+  permission!$C$2,
+  0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D26) * permission!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D26) * permission!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D26) * permission!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D26) * permission!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="10">
+        <f xml:space="preserve"> IF(
+  OR($D26="", $F26=0),
+  permission!$H$2,
+  SUM($F26:$J26)
+)</f>
+        <v>31</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>components3-1</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="10">
+        <f xml:space="preserve"> IF(
+  COUNTIF(auth!$C:$C,$D27) &gt; 0,
+  permission!$C$2,
+  0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D27) * permission!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D27) * permission!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D27) * permission!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D27) * permission!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <f xml:space="preserve"> IF(
+  OR($D27="", $F27=0),
+  permission!$H$2,
+  SUM($F27:$J27)
+)</f>
+        <v>31</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>components3-2</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="10">
+        <f xml:space="preserve"> IF(
+  COUNTIF(auth!$C:$C,$D28) &gt; 0,
+  permission!$C$2,
+  0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D28) * permission!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D28) * permission!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D28) * permission!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D28) * permission!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="10">
+        <f xml:space="preserve"> IF(
+  OR($D28="", $F28=0),
+  permission!$H$2,
+  SUM($F28:$J28)
+)</f>
+        <v>31</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>components3-3</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="10">
+        <f xml:space="preserve"> IF(
+  COUNTIF(auth!$C:$C,$D29) &gt; 0,
+  permission!$C$2,
+  0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$D:$D, auth!$C:$C, $D29) * permission!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$E:$E, auth!$C:$C, $D29) * permission!$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$F:$F, auth!$C:$C, $D29) * permission!$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
+        <f xml:space="preserve"> SUMIFS(auth!$G:$G, auth!$C:$C, $D29) * permission!$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="10">
+        <f xml:space="preserve"> IF(
+  OR($D29="", $F29=0),
+  permission!$H$2,
+  SUM($F29:$J29)
+)</f>
+        <v>31</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P17" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:P7" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:E17">
-    <cfRule type="expression" dxfId="3" priority="112">
-      <formula>AND($B2="",$C2="",COUNTIFS($A:$A,$A2,$B:$B,"",$C:$C,"")&gt;1)</formula>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="29" priority="154">
+      <formula>AND($B3="",$C3="",COUNTIFS($A:$A,$A3,$B:$B,"",$C:$C,"")&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E17">
-    <cfRule type="expression" dxfId="2" priority="108">
-      <formula>AND($C2="",COUNTIFS($B:$B,$B2,$C:$C,"")&gt;1)</formula>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="28" priority="156">
+      <formula>AND($C3="",COUNTIFS($B:$B,$B3,$C:$C,"")&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E17">
-    <cfRule type="expression" dxfId="1" priority="82">
-      <formula>COUNTIF($C:$C,$C2)&gt;1</formula>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="expression" dxfId="27" priority="158">
+      <formula>COUNTIF($C:$C,$C3)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2930,46 +3755,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="132" id="{4FB29664-2E7F-40AA-BCB5-FC05986ECF3E}">
-            <xm:f>AND($A2&lt;&gt;"",$B2="",$C2="",COUNTIF(auth!$B:$B,$A2)=0)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFCCECFF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A2:A17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="131" id="{6947890B-62A0-4074-A796-A9B2C38732AD}">
-            <xm:f>AND($B2&lt;&gt;"",$C2="",COUNTIF(auth!$C:$C,$B2)=0)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFCCFF99"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A2:B17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="128" id="{0EAC864B-1746-4518-88E2-8977E972D8FE}">
-            <xm:f>AND($C2&lt;&gt;"",COUNTIF(auth!$C:$C,$C2)=0)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF99"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A2:D17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{BBEF6D8E-01EC-4C51-A500-BA5832CF55CA}">
+          <x14:cfRule type="expression" priority="21" id="{BBEF6D8E-01EC-4C51-A500-BA5832CF55CA}">
             <xm:f>OR($F2&gt;permission!$C$2,$G2&gt;permission!$D$2,$H2&gt;permission!$E$2,$I2&gt;permission!$F$2,$J2&gt;permission!$G$2)</xm:f>
             <x14:dxf>
               <fill>
@@ -2979,7 +3765,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K2:K17</xm:sqref>
+          <xm:sqref>K2:K29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2995,81 +3781,81 @@
       <selection activeCell="G1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="6" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>4</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>8</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>16</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <f>SUM($C2:$G2)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="2"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
